--- a/LineGraphAssignment3.xlsx
+++ b/LineGraphAssignment3.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Robotics - 06\Documents\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{48169ED8-8901-49AF-BDAE-B3609E8B97F7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1F0A6557-F29A-46CE-92E9-FF2A7A6F5888}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="21840" windowHeight="13140" xr2:uid="{1ECE5722-7DB9-40C2-94FA-6B0F3CEFC37D}"/>
   </bookViews>
@@ -108,36 +108,6 @@
     </mc:Fallback>
   </mc:AlternateContent>
   <c:chart>
-    <c:title>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="en-US"/>
-        </a:p>
-      </c:txPr>
-    </c:title>
     <c:autoTitleDeleted val="0"/>
     <c:plotArea>
       <c:layout/>
@@ -147,19 +117,8 @@
         <c:ser>
           <c:idx val="0"/>
           <c:order val="0"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>Sheet1!$B$1</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>Potentiometer</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
           <c:spPr>
-            <a:ln w="19050" cap="rnd">
+            <a:ln w="25400" cap="rnd">
               <a:noFill/>
               <a:round/>
             </a:ln>
@@ -210,8 +169,8 @@
             <c:trendlineLbl>
               <c:layout>
                 <c:manualLayout>
-                  <c:x val="8.3647856517935257E-2"/>
-                  <c:y val="-0.21578995333916592"/>
+                  <c:x val="-6.5555774278215226E-2"/>
+                  <c:y val="-0.10555701370662"/>
                 </c:manualLayout>
               </c:layout>
               <c:numFmt formatCode="General" sourceLinked="0"/>
@@ -246,6 +205,78 @@
           </c:trendline>
           <c:xVal>
             <c:numRef>
+              <c:f>Sheet1!$B$2:$B$22</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="21"/>
+                <c:pt idx="0">
+                  <c:v>2905</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2725</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2252</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1775</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1701</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1203</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1036</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>2934</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>2703</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>2237</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>2128</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>1708</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>1220</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>988</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>2874</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>2697</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>2219</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>2084</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>1712</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>1201</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>960</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
               <c:f>Sheet1!$A$2:$A$22</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
@@ -315,83 +346,11 @@
                 </c:pt>
               </c:numCache>
             </c:numRef>
-          </c:xVal>
-          <c:yVal>
-            <c:numRef>
-              <c:f>Sheet1!$B$2:$B$22</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="21"/>
-                <c:pt idx="0">
-                  <c:v>2905</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>2725</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>2252</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>1775</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>1701</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>1203</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>1036</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>2934</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>2703</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>2237</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>2128</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>1708</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>1220</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>988</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>2874</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>2697</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>2219</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>2084</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>1712</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>1201</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>960</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
           </c:yVal>
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-0876-450D-928A-D02CC3FB566E}"/>
+              <c16:uniqueId val="{00000017-8293-4FDE-BAC9-2D5F7BB5CA5E}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -403,11 +362,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="1531582767"/>
-        <c:axId val="1531581935"/>
+        <c:axId val="1628034671"/>
+        <c:axId val="1628035087"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="1531582767"/>
+        <c:axId val="1628034671"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -464,12 +423,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1531581935"/>
+        <c:crossAx val="1628035087"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="1531581935"/>
+        <c:axId val="1628035087"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -526,7 +485,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1531582767"/>
+        <c:crossAx val="1628034671"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -540,6 +499,13 @@
     </c:plotArea>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
     <c:showDLblsOverMax val="0"/>
   </c:chart>
   <c:spPr>
@@ -1135,23 +1101,23 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>76200</xdr:colOff>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>547687</xdr:colOff>
       <xdr:row>7</xdr:row>
       <xdr:rowOff>71437</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>14</xdr:col>
-      <xdr:colOff>381000</xdr:colOff>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>242887</xdr:colOff>
       <xdr:row>21</xdr:row>
       <xdr:rowOff>147637</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="2" name="Chart 1">
+        <xdr:cNvPr id="3" name="Chart 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DC21D4BF-1A5C-49A0-8CA7-A8269BEA2E92}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{217FFA7A-27DF-4DC7-B462-D2B18258E27B}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1472,7 +1438,7 @@
   <dimension ref="A1:B22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="Q7" sqref="Q7"/>
+      <selection activeCell="L7" sqref="L7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
